--- a/Timesheet_Jiranun.xlsx
+++ b/Timesheet_Jiranun.xlsx
@@ -14,24 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
+  <si>
+    <t>BM : split sides</t>
+  </si>
+  <si>
+    <t>wiki - BM, QF</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>add more description in the beginning of the file + copyright</t>
+  </si>
+  <si>
+    <t>QF : effort on -- quantify bg sub ?? ===&gt; synthesis verification bg sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP - fix orientation fitting </t>
+  </si>
+  <si>
+    <t>Debian Python Policy</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/3684484/peak-detection-in-a-2d-array</t>
+  </si>
+  <si>
     <t>Application</t>
   </si>
   <si>
     <t>Tasks</t>
   </si>
   <si>
+    <t>MP - http://mx.iit.edu/source.html</t>
+  </si>
+  <si>
+    <t>DC - document</t>
+  </si>
+  <si>
+    <t>Finding center?</t>
+  </si>
+  <si>
+    <t>ALL : explain how to use in status bar</t>
+  </si>
+  <si>
+    <t>- select detector type - combo</t>
+  </si>
+  <si>
+    <t>- put back mask threshold</t>
+  </si>
+  <si>
+    <t>find better center for QF</t>
+  </si>
+  <si>
+    <t>explain White top hat in Doc</t>
+  </si>
+  <si>
+    <t>QF doc --- circular plots</t>
+  </si>
+  <si>
+    <t>QF change tab to results</t>
+  </si>
+  <si>
     <t>version</t>
   </si>
   <si>
-    <t>BM : split sides</t>
-  </si>
-  <si>
     <t>Bio-muscle</t>
+  </si>
+  <si>
+    <t>installation page</t>
+  </si>
+  <si>
+    <t>http://www.cs.iit.edu/~agam/public/biocat/</t>
   </si>
   <si>
     <t>- ADDED : Voigt fitting function
@@ -42,13 +96,7 @@
 - Argonne Trainings</t>
   </si>
   <si>
-    <t>installation page</t>
-  </si>
-  <si>
     <t>2.1</t>
-  </si>
-  <si>
-    <t>http://www.cs.iit.edu/~agam/public/biocat/</t>
   </si>
   <si>
     <t>- Support pilatus images (Valleys removed before fitting)
@@ -100,24 +148,6 @@
     <t>Orientation</t>
   </si>
   <si>
-    <t>wiki - BM, QF</t>
-  </si>
-  <si>
-    <t>add more description in the beginning of the file + copyright</t>
-  </si>
-  <si>
-    <t>QF : effort on -- quantify bg sub ?? ===&gt; synthesis verification bg sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP - fix orientation fitting </t>
-  </si>
-  <si>
-    <t>Debian Python Policy</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/3684484/peak-detection-in-a-2d-array</t>
-  </si>
-  <si>
     <t xml:space="preserve">- ADDED : Help &gt;&gt; User Manual on menubar -- open doc url
 - FIXED : zoom in rectangle stopped changing when cursor was outside plot/img (grey area)
 - ADDED : Help &gt;&gt; Shortcut keys 
@@ -127,45 +157,15 @@
     <t>2.5</t>
   </si>
   <si>
-    <t>MP - http://mx.iit.edu/source.html</t>
-  </si>
-  <si>
-    <t>DC - document</t>
-  </si>
-  <si>
     <t>Quadrant Folding</t>
-  </si>
-  <si>
-    <t>Finding center?</t>
-  </si>
-  <si>
-    <t>ALL : explain how to use in status bar</t>
-  </si>
-  <si>
-    <t>- select detector type - combo</t>
   </si>
   <si>
     <t>- ADDED : Mask Threshold param settings
 - Tried Backgound Subtraction (local minimum &amp; white top hat 2 times)</t>
   </si>
   <si>
-    <t>- put back mask threshold</t>
-  </si>
-  <si>
-    <t>find better center for QF</t>
-  </si>
-  <si>
-    <t>explain White top hat in Doc</t>
-  </si>
-  <si>
     <t>- Display setting details when "Process Current Folder" clicked
 - ADDED : Fixed sigma D &amp; sigma S</t>
-  </si>
-  <si>
-    <t>QF doc --- circular plots</t>
-  </si>
-  <si>
-    <t>QF change tab to results</t>
   </si>
   <si>
     <t>- ADDED : Skeletal fitting
@@ -543,6 +543,25 @@
   </si>
   <si>
     <t xml:space="preserve">- Circularly Symmetric Background Subtraction </t>
+  </si>
+  <si>
+    <t>- Fixed bugs</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>- Create home page - release notes for Bio-Muscle - http://bitbucket.org/biocatiit/biocat/wiki</t>
+  </si>
+  <si>
+    <t>PyPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Create musclex package on PyPI - install by : $ pip install musclex
+- To run program : $ musclex [shortcut] </t>
+  </si>
+  <si>
+    <t>- Move wiki to https://github.com/biocatiit/musclex/wiki</t>
   </si>
 </sst>
 </file>
@@ -558,10 +577,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -662,73 +681,73 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -772,31 +791,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>42934.0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -804,24 +823,24 @@
         <v>42935.0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -829,13 +848,13 @@
         <v>42936.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -843,24 +862,24 @@
         <v>42937.0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -868,22 +887,22 @@
         <v>42940.0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9">
       <c r="B9" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -891,19 +910,19 @@
         <v>42941.0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" s="14"/>
     </row>
     <row r="11">
       <c r="B11" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14"/>
     </row>
@@ -912,7 +931,7 @@
         <v>42942.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>44</v>
@@ -923,7 +942,7 @@
     </row>
     <row r="13">
       <c r="B13" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>46</v>
@@ -935,7 +954,7 @@
         <v>42943.0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>47</v>
@@ -947,7 +966,7 @@
         <v>42944.0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>48</v>
@@ -958,7 +977,7 @@
     </row>
     <row r="16">
       <c r="B16" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>50</v>
@@ -970,7 +989,7 @@
         <v>42947.0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>51</v>
@@ -984,7 +1003,7 @@
         <v>42948.0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>53</v>
@@ -993,7 +1012,7 @@
     </row>
     <row r="19">
       <c r="B19" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>54</v>
@@ -1005,7 +1024,7 @@
         <v>42949.0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>55</v>
@@ -1023,7 +1042,7 @@
     </row>
     <row r="22">
       <c r="B22" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>58</v>
@@ -1037,7 +1056,7 @@
         <v>42950.0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>60</v>
@@ -1048,7 +1067,7 @@
     </row>
     <row r="24">
       <c r="B24" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>62</v>
@@ -1064,7 +1083,7 @@
     </row>
     <row r="26">
       <c r="B26" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>64</v>
@@ -1101,7 +1120,7 @@
     </row>
     <row r="29">
       <c r="B29" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>70</v>
@@ -1110,7 +1129,7 @@
     </row>
     <row r="30">
       <c r="B30" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>71</v>
@@ -1122,7 +1141,7 @@
         <v>42955.0</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>72</v>
@@ -1134,7 +1153,7 @@
         <v>42956.0</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>73</v>
@@ -1145,7 +1164,7 @@
     </row>
     <row r="33">
       <c r="B33" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>75</v>
@@ -1159,7 +1178,7 @@
         <v>42957.0</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>77</v>
@@ -1173,7 +1192,7 @@
         <v>42958.0</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>79</v>
@@ -1185,7 +1204,7 @@
         <v>42961.0</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>80</v>
@@ -1196,7 +1215,7 @@
     </row>
     <row r="37">
       <c r="B37" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>82</v>
@@ -1210,7 +1229,7 @@
         <v>42962.0</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>84</v>
@@ -1233,7 +1252,7 @@
         <v>42963.0</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>88</v>
@@ -1242,7 +1261,7 @@
     </row>
     <row r="41">
       <c r="B41" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>89</v>
@@ -1254,7 +1273,7 @@
         <v>42964.0</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>90</v>
@@ -1268,7 +1287,7 @@
         <v>42965.0</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>92</v>
@@ -1280,7 +1299,7 @@
         <v>42968.0</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>93</v>
@@ -1321,7 +1340,7 @@
     </row>
     <row r="48">
       <c r="B48" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>100</v>
@@ -1333,7 +1352,7 @@
         <v>42970.0</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>101</v>
@@ -1345,7 +1364,7 @@
         <v>42971.0</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>102</v>
@@ -1357,7 +1376,7 @@
         <v>42972.0</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>103</v>
@@ -1371,7 +1390,7 @@
         <v>42973.0</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>105</v>
@@ -1380,7 +1399,7 @@
     </row>
     <row r="53">
       <c r="B53" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>106</v>
@@ -1392,7 +1411,7 @@
         <v>42975.0</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>107</v>
@@ -1401,7 +1420,7 @@
     </row>
     <row r="55">
       <c r="B55" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>62</v>
@@ -1422,7 +1441,7 @@
     </row>
     <row r="57">
       <c r="B57" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>109</v>
@@ -1431,7 +1450,7 @@
     </row>
     <row r="58">
       <c r="B58" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>110</v>
@@ -1476,7 +1495,7 @@
     </row>
     <row r="62">
       <c r="B62" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>114</v>
@@ -1497,7 +1516,7 @@
     </row>
     <row r="64">
       <c r="B64" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>62</v>
@@ -1509,7 +1528,7 @@
         <v>42984.0</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>116</v>
@@ -1520,7 +1539,7 @@
     </row>
     <row r="66">
       <c r="B66" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>118</v>
@@ -1543,7 +1562,7 @@
     </row>
     <row r="68">
       <c r="B68" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>121</v>
@@ -1575,7 +1594,7 @@
     </row>
     <row r="71">
       <c r="B71" s="11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>125</v>
@@ -1584,7 +1603,7 @@
     </row>
     <row r="72">
       <c r="B72" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>62</v>
@@ -1605,7 +1624,7 @@
     </row>
     <row r="74">
       <c r="B74" s="11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>128</v>
@@ -1635,7 +1654,7 @@
     </row>
     <row r="77">
       <c r="B77" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>131</v>
@@ -1643,111 +1662,141 @@
       <c r="D77" s="14"/>
     </row>
     <row r="78">
-      <c r="A78" s="17">
+      <c r="A78" s="10">
         <v>42991.0</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D78" s="19"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79">
-      <c r="B79" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="7" t="s">
+      <c r="B79" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D79" s="19"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80">
-      <c r="A80" s="17">
+      <c r="A80" s="10">
         <v>42992.0</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="7" t="s">
+      <c r="B80" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D80" s="19"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81">
-      <c r="A81" s="17">
+      <c r="A81" s="10">
         <v>42993.0</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D81" s="19"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82">
-      <c r="A82" s="17">
+      <c r="A82" s="10">
         <v>42996.0</v>
       </c>
-      <c r="B82" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="19"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83">
-      <c r="A83" s="17">
+      <c r="A83" s="10">
         <v>42997.0</v>
       </c>
-      <c r="B83" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="19"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84">
-      <c r="B84" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="19"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
+      <c r="A85" s="17">
+        <v>42998.0</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D85" s="19"/>
     </row>
     <row r="86">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
+      <c r="B86" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D86" s="19"/>
     </row>
     <row r="87">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
+      <c r="B87" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D87" s="19"/>
     </row>
     <row r="88">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
+      <c r="A88" s="17">
+        <v>42999.0</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D88" s="19"/>
     </row>
     <row r="89">
-      <c r="A89" s="20"/>
-      <c r="B89" s="21"/>
+      <c r="B89" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D89" s="19"/>
     </row>
     <row r="90">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="17">
+        <v>43000.0</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="D90" s="19"/>
     </row>
     <row r="91">
@@ -6306,34 +6355,36 @@
       <c r="D1001" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A36:A37"/>
+  <mergeCells count="30">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A89"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A44:A46"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A70:A72"/>
     <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A32:A33"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -6369,97 +6420,97 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="6">
-      <c r="A6" s="7"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>28</v>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>32</v>
+      <c r="A14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>34</v>
+      <c r="A16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>35</v>
+      <c r="A18" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>36</v>
+      <c r="A23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>38</v>
+      <c r="A25" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
-        <v>39</v>
+      <c r="A29" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>40</v>
+      <c r="A30" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>42</v>
+      <c r="A31" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>43</v>
+      <c r="A32" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6484,11 +6535,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>9</v>
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
